--- a/sources/other/D3871-བྱང་ཆུབ་སེམས་དཔའི་སྤྱོད་པ་ལ་འཇུག་པ།.xlsx
+++ b/sources/other/D3871-བྱང་ཆུབ་སེམས་དཔའི་སྤྱོད་པ་ལ་འཇུག་པ།.xlsx
@@ -20,652 +20,697 @@
     <t>1a</t>
   </si>
   <si>
+    <t>0b</t>
+  </si>
+  <si>
     <t>གཅིག་</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360006.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>0b</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830004.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210003.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210004.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>2a</t>
   </si>
   <si>
     <t>གཉིས་</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830005.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360007.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830005.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210004.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210005.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>2b</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210006.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830006.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360008.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830006.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210005.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
     <t>གསུམ་</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210007.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830007.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210008.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>བཞི་</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360009.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830007.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210006.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210009.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830008.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>3b</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360010.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210007.tif/full/max/0/default.png</t>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210010.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360011.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>5a</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830009.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>བཞི་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360011.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210008.tif/full/max/0/default.png</t>
+    <t>ལྔ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210011.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360012.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210012.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830010.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360012.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210009.tif/full/max/0/default.png</t>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>དྲུག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210013.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360013.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830011.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>ལྔ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360013.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210010.tif/full/max/0/default.png</t>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210014.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360014.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830012.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>བདུན་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210015.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360015.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210016.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830013.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360014.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210011.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360016.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>བརྒྱད་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210017.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360017.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>8b</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830014.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>དྲུག་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360015.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210012.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210018.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360018.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>དགུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210019.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360019.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830015.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>6b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360016.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210013.tif/full/max/0/default.png</t>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210020.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360020.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830016.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210014.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>བདུན་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360017.tif/full/max/0/default.png</t>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>བཅུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210021.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210022.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360021.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830017.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210015.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360018.tif/full/max/0/default.png</t>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>བཅུ་གཅིག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210023.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830018.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210016.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>བརྒྱད་</t>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360022.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210024.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>བཅུ་གཉིས་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210025.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830019.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360019.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210017.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>8b</t>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210026.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360023.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t>བཅུ་གསུམ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210027.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830020.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360020.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210018.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>དགུ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360021.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210019.tif/full/max/0/default.png</t>
+    <t>13b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210028.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360024.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>བཅུ་བཞི་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210029.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830021.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360022.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210020.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>བཅུ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360023.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360025.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210030.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360026.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830022.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210021.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360024.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210022.tif/full/max/0/default.png</t>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>བཅོ་ལྔ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210031.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360027.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360028.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830023.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>11a</t>
-  </si>
-  <si>
-    <t>བཅུ་གཅིག་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360025.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210023.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>11b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360026.tif/full/max/0/default.png</t>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210032.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360029.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830024.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210024.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>12a</t>
-  </si>
-  <si>
-    <t>བཅུ་གཉིས་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360027.tif/full/max/0/default.png</t>
+    <t>16a</t>
+  </si>
+  <si>
+    <t>བཅུ་དྲུག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210033.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360030.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830025.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210025.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>12b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360028.tif/full/max/0/default.png</t>
+    <t>16b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210034.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360031.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830026.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>13a</t>
-  </si>
-  <si>
-    <t>བཅུ་གསུམ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360029.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210026.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>13b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360030.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210027.tif/full/max/0/default.png</t>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>བཅུ་བདུན་</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830027.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>14a</t>
-  </si>
-  <si>
-    <t>བཅུ་བཞི་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360031.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210028.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>14b</t>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210035.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360032.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210029.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830028.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>15a</t>
-  </si>
-  <si>
-    <t>བཅོ་ལྔ་</t>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210036.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360033.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210030.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>15b</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830029.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>18a</t>
+  </si>
+  <si>
+    <t>བཅོ་བརྒྱད་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210037.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360034.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830029.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210031.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>16a</t>
-  </si>
-  <si>
-    <t>བཅུ་དྲུག་</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830030.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360035.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210032.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>16b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830030.jpg/full/max/0/default.jpg</t>
+    <t>18b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210038.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>བཅུ་དགུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210039.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360036.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210033.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>17a</t>
-  </si>
-  <si>
-    <t>བཅུ་བདུན་</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830031.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>19b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210040.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360037.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210034.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830031.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>17b</t>
+    <t>20a</t>
+  </si>
+  <si>
+    <t>ཉི་ཤུ</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210041.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830032.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360038.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210035.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>18a</t>
-  </si>
-  <si>
-    <t>བཅོ་བརྒྱད་</t>
+    <t>20b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210042.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830033.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>21a</t>
+  </si>
+  <si>
+    <t>ཉེར་གཅིག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210043.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360039.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830032.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210036.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>18b</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830034.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>21b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210044.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360040.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210037.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830033.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>19a</t>
-  </si>
-  <si>
-    <t>བཅུ་དགུ་</t>
+    <t>22a</t>
+  </si>
+  <si>
+    <t>ཉེར་གཉིས་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210045.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830035.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360041.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210038.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830034.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>19b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210039.tif/full/max/0/default.png</t>
+    <t>22b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210046.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360042.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210040.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830035.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>20a</t>
-  </si>
-  <si>
-    <t>ཉི་ཤུ</t>
+    <t>23a</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830036.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>ཉེར་གསུམ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210047.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>23b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210048.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360043.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210041.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>20b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210042.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830037.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>24a</t>
+  </si>
+  <si>
+    <t>ཉེར་བཞི་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210049.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360044.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830036.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>21a</t>
-  </si>
-  <si>
-    <t>ཉེར་གཅིག་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210043.tif/full/max/0/default.png</t>
+    <t>24b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830038.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210050.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360045.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830037.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>21b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210044.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>22a</t>
-  </si>
-  <si>
-    <t>ཉེར་གཉིས་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210045.tif/full/max/0/default.png</t>
+    <t>25a</t>
+  </si>
+  <si>
+    <t>ཉེར་ལྔ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210051.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360046.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830038.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>22b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210046.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830039.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>25b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210052.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360047.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830039.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>23a</t>
-  </si>
-  <si>
-    <t>ཉེར་གསུམ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210047.tif/full/max/0/default.png</t>
+    <t>26a</t>
+  </si>
+  <si>
+    <t>ཉེར་དྲུག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210053.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360048.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>23b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210048.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830040.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>26b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210054.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360049.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830040.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>24a</t>
-  </si>
-  <si>
-    <t>ཉེར་བཞི་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210049.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830041.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>27a</t>
+  </si>
+  <si>
+    <t>ཉེར་བདུན་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210055.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360050.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>24b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210050.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830041.jpg/full/max/0/default.jpg</t>
+    <t>27b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210056.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360051.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>25a</t>
-  </si>
-  <si>
-    <t>ཉེར་ལྔ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210051.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830042.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>28a</t>
+  </si>
+  <si>
+    <t>ཉེར་བརྒྱད་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210057.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360052.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>25b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210052.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830043.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>28b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210058.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360053.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830043.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>26a</t>
-  </si>
-  <si>
-    <t>ཉེར་དྲུག་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210053.tif/full/max/0/default.png</t>
+    <t>29a</t>
+  </si>
+  <si>
+    <t>ཉེར་དགུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210059.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360054.tif/full/max/0/default.png</t>
@@ -674,130 +719,154 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830044.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>26b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210054.tif/full/max/0/default.png</t>
+    <t>29b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210060.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360055.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>30a</t>
+  </si>
+  <si>
+    <t>སུམ་བཅུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210061.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360056.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830045.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>27a</t>
-  </si>
-  <si>
-    <t>ཉེར་བདུན་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210055.tif/full/max/0/default.png</t>
+    <t>30b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210062.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360057.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>31a</t>
+  </si>
+  <si>
+    <t>སོ་གཅིག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210063.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830046.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360056.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>27b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210056.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360057.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360058.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>31b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210064.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830047.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360058.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>28a</t>
-  </si>
-  <si>
-    <t>ཉེར་བརྒྱད་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210057.tif/full/max/0/default.png</t>
+    <t>32a</t>
+  </si>
+  <si>
+    <t>སོ་གཉིས་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210065.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360059.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830048.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360059.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>28b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210058.tif/full/max/0/default.png</t>
+    <t>32b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210066.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360060.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830049.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360060.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>29a</t>
-  </si>
-  <si>
-    <t>ཉེར་དགུ་</t>
+    <t>33a</t>
+  </si>
+  <si>
+    <t>སོ་གསུམ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210067.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360061.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210059.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830050.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>29b</t>
+    <t>33b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210068.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>34a</t>
+  </si>
+  <si>
+    <t>སོ་བཞི་</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360062.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210060.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>30a</t>
-  </si>
-  <si>
-    <t>སུམ་བཅུ་</t>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210069.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830051.jpg/full/max/0/default.jpg</t>
+  </si>
+  <si>
+    <t>34b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210070.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360063.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830051.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210061.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>30b</t>
+    <t>35a</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360064.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>སོ་ལྔ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210071.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830052.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210062.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>31a</t>
-  </si>
-  <si>
-    <t>སོ་གཅིག་</t>
+    <t>35b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210072.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360065.tif/full/max/0/default.png</t>
@@ -806,243 +875,174 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830053.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210063.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>31b</t>
+    <t>36a</t>
+  </si>
+  <si>
+    <t>སོ་དྲུག་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210073.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360066.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>36b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210074.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830054.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210064.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>32a</t>
-  </si>
-  <si>
-    <t>སོ་གཉིས་</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360067.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>37a</t>
+  </si>
+  <si>
+    <t>སོ་བདུན་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210075.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830055.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210065.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>32b</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360068.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>37b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210076.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>38a</t>
+  </si>
+  <si>
+    <t>སོ་བརྒྱད་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210077.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830056.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210066.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>33a</t>
-  </si>
-  <si>
-    <t>སོ་གསུམ་</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360069.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>38b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210078.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360070.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830057.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210067.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>33b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360070.tif/full/max/0/default.png</t>
+    <t>39a</t>
+  </si>
+  <si>
+    <t>སོ་དགུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210079.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830058.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210068.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>34a</t>
-  </si>
-  <si>
-    <t>སོ་བཞི་</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360071.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>39b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210080.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>40a</t>
+  </si>
+  <si>
+    <t>བཞི་བཅུ་</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210081.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360072.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830059.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210069.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>34b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360072.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210070.tif/full/max/0/default.png</t>
+    <t>40b</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210082.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360073.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830060.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>35a</t>
-  </si>
-  <si>
-    <t>སོ་ལྔ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360073.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210071.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>35b</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360074.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360075.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830061.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>36a</t>
-  </si>
-  <si>
-    <t>སོ་དྲུག་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360075.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210072.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830062.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210073.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>36b</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360076.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210074.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830063.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>37a</t>
-  </si>
-  <si>
-    <t>སོ་བདུན་</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360077.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210075.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>37b</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830064.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360078.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210076.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830064.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>38a</t>
-  </si>
-  <si>
-    <t>སོ་བརྒྱད་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210077.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360079.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830065.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>38b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210078.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830066.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360080.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>39a</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830066.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>སོ་དགུ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210079.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>39b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210080.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830067.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360081.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830067.jpg/full/max/0/default.jpg</t>
-  </si>
-  <si>
-    <t>40a</t>
-  </si>
-  <si>
-    <t>བཞི་བཅུ་</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210081.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1GS66030_I1GS66136::I1GS661360082.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>40b</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V23703_I1421::14210082.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830068.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
@@ -1079,22 +1079,43 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830079.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650004.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830080.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650005.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830081.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650006.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650007.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830082.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650008.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650009.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830083.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650010.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830084.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650004.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650011.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>41a</t>
@@ -1106,7 +1127,10 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830085.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650005.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650012.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650013.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>41b</t>
@@ -1115,7 +1139,7 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830086.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650006.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650014.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>42a</t>
@@ -1127,7 +1151,10 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830087.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650007.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650015.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650016.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>42b</t>
@@ -1136,7 +1163,10 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830088.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650008.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650017.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650018.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>43a</t>
@@ -1145,19 +1175,19 @@
     <t>ཞེ་གསུམ་</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650009.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830089.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650019.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>43b</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830090.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650010.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650020.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>44a</t>
@@ -1169,7 +1199,7 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830091.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650011.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650021.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>44b</t>
@@ -1178,7 +1208,7 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830092.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650012.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650022.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>45a</t>
@@ -1190,403 +1220,373 @@
     <t>https://iiif.bdrc.io/bdr:V1KG13126_I1KG13283::I1KG132830093.jpg/full/max/0/default.jpg</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650013.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650014.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650015.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650016.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650023.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650024.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650025.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650026.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650027.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650028.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650029.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510003.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650030.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650031.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510004.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650017.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650032.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510005.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650018.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650033.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650034.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510006.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650019.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650035.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510007.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650020.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650036.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510008.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650037.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510009.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650021.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650038.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650039.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510010.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650040.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510011.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650022.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650041.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510012.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650023.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650042.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510013.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650043.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650044.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510014.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650024.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650045.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510015.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650046.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510016.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650025.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650047.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510017.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650026.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650048.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510018.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650049.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650050.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510019.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650027.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650051.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510020.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650028.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650052.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510021.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650053.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650054.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510022.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650029.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650055.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510023.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650030.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650056.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510024.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650057.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510025.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650031.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650058.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650059.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510026.tif/full/max/0/default.png</t>
   </si>
   <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650060.tif/full/max/0/default.png</t>
+  </si>
+  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510027.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650032.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650061.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510028.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650033.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650062.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510029.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650034.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650063.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650064.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510030.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650035.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650065.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510031.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650036.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650066.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510032.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650037.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650067.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510033.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650038.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650068.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650069.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510034.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650039.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650070.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510035.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650040.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650071.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510036.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650041.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650072.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510037.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650042.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650073.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510038.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650043.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650074.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510039.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650044.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650075.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510040.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650045.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650076.tif/full/max/0/default.png</t>
+  </si>
+  <si>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650077.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510041.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650046.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650078.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510042.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650047.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650079.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510043.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650048.tif/full/max/0/default.png</t>
+    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650080.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510044.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650049.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510045.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650050.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510046.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510047.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650051.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510048.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650052.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510049.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650053.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510050.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650054.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510051.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650055.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510052.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650056.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510053.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650057.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510054.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650058.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650059.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510055.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650060.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510056.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650061.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650062.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510057.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650063.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650064.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510058.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650065.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650066.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510059.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650067.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650068.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510060.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650069.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510061.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650070.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650071.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510062.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650072.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510063.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650073.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650074.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510064.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650075.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650076.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510065.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650077.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510066.tif/full/max/0/default.png</t>
   </si>
   <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650078.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650079.tif/full/max/0/default.png</t>
-  </si>
-  <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510067.tif/full/max/0/default.png</t>
-  </si>
-  <si>
-    <t>https://iiif.bdrc.io/bdr:V22704_I3365::33650080.tif/full/max/0/default.png</t>
   </si>
   <si>
     <t>https://iiif.bdrc.io/bdr:V23702_I1PD31451::I1PD314510068.tif/full/max/0/default.png</t>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -2009,751 +2009,751 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2858,1076 +2858,1076 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4060,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -4071,604 +4071,604 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>342</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>343</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>344</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>345</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>346</v>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>347</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>348</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>349</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>350</v>
@@ -4752,10 +4752,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>351</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>352</v>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>353</v>
@@ -4782,135 +4782,135 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5022,10 +5022,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
@@ -5033,721 +5033,721 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5849,623 +5849,623 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>524</v>
@@ -6473,10 +6473,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>525</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>526</v>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>527</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>528</v>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>529</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>530</v>
@@ -6530,10 +6530,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>531</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>532</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>533</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>534</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>535</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>536</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>537</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>538</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>539</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>540</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>541</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>542</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>543</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>544</v>
@@ -6663,10 +6663,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>545</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>546</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>547</v>
